--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\NetBeansProjects\PakketManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA964A-E88E-4F70-B65A-FF09A28FA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4030EE6C-A2D5-4C58-B531-12220AE5796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18000" windowHeight="9360" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Naam student 1:</t>
   </si>
   <si>
-    <t>Dit is een voorbeeld rij. In deze kolom beschrijf je de taak waaraan je gewerkt hebt.</t>
-  </si>
-  <si>
     <t>Taak</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Maurits Van Mossevelde</t>
+  </si>
+  <si>
+    <t>Github repo aanmaken, EJB voor databank, begin jsps</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,35 +484,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
-        <v>44505</v>
+        <v>44882</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
